--- a/price.xlsx
+++ b/price.xlsx
@@ -466,7 +466,7 @@
     <t xml:space="preserve">Denso SK20BGR11,NGK HB6AIX-11P,NGK HB6AIX11P,NGK PZFR6N-11TG</t>
   </si>
   <si>
-    <t xml:space="preserve">Свеча зажигания (4 шт.)</t>
+    <t xml:space="preserve">Упаковка со свечами в количестве 4 штуки</t>
   </si>
   <si>
     <t xml:space="preserve">VOLVO</t>
@@ -776,7 +776,7 @@
   <dimension ref="A1:XFD67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
